--- a/Conversion Script/Set_filter_file_MiddleEarth.xlsx
+++ b/Conversion Script/Set_filter_file_MiddleEarth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kl\Documents\GENeSYS_MOD.data\Conversion Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nim\Documents\GENeSYS_MOD.data\Conversion Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D6DA2-C743-42C8-8A8D-6A64BC7DF769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385E0AF-1477-4DEB-8571-05C86B0EDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
+    <workbookView xWindow="38292" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_selection" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Storage_selection!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Technology_selection!$A$1:$B$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Technology_selection!$A$1:$B$153</definedName>
     <definedName name="Fuels">#REF!</definedName>
     <definedName name="Technologies">#REF!:B</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="296">
   <si>
     <t>DE</t>
   </si>
@@ -265,9 +265,6 @@
     <t>FRT_Ship_LNG</t>
   </si>
   <si>
-    <t>HLI_Convert_DH</t>
-  </si>
-  <si>
     <t>HHI_BF_BOF</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>HB_Biomass</t>
   </si>
   <si>
-    <t>HB_Convert_DH</t>
-  </si>
-  <si>
     <t>HB_Direct_Electric</t>
   </si>
   <si>
@@ -941,6 +935,9 @@
   </si>
   <si>
     <t>Mordor</t>
+  </si>
+  <si>
+    <t>X_Convert_HD</t>
   </si>
 </sst>
 </file>
@@ -1306,34 +1303,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A667788-FC3C-4C43-9E46-ED47A2AEE749}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1613,185 +1610,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>210</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>211</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>212</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>213</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>214</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>215</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>216</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>217</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>219</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>220</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>221</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>222</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>223</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>224</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>225</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>226</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>227</v>
-      </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>292</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>293</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>294</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>296</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1804,26 +1801,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1839,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1871,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1943,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1959,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1967,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1991,31 +1988,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>279</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>281</v>
-      </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2047,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2087,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -2111,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2119,143 +2116,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>232</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>233</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>234</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>235</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>236</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>237</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>238</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>239</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>240</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>241</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>242</v>
-      </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>285</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>286</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>287</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>288</v>
-      </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -2303,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2327,87 +2324,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>269</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>270</v>
       </c>
@@ -2423,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -2431,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>272</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -2447,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>274</v>
       </c>
@@ -2455,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -2463,63 +2460,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2527,15 +2524,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2543,63 +2540,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>266</v>
-      </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2607,23 +2604,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>252</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
       <c r="B101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>253</v>
       </c>
@@ -2631,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>254</v>
       </c>
@@ -2639,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>255</v>
       </c>
@@ -2647,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>258</v>
       </c>
@@ -2671,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>259</v>
       </c>
@@ -2679,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -2687,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -2695,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -2703,127 +2700,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>263</v>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>264</v>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>111</v>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>242</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>112</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -2831,31 +2828,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>244</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>245</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>117</v>
-      </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>246</v>
       </c>
@@ -2863,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>247</v>
       </c>
@@ -2871,47 +2868,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>119</v>
       </c>
@@ -2919,23 +2916,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>278</v>
-      </c>
       <c r="B140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>121</v>
       </c>
@@ -2943,31 +2940,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>122</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>123</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>229</v>
-      </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>124</v>
       </c>
@@ -2975,23 +2972,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>125</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>230</v>
-      </c>
       <c r="B147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>126</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -3007,23 +3004,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>129</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>131</v>
       </c>
@@ -3039,22 +3036,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>132</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B154" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B154">
-      <sortCondition ref="A1:A154"/>
+  <autoFilter ref="A1:B153" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B153">
+      <sortCondition ref="A1:A153"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A68 A31:A34 A144 A16:A17" xr:uid="{F3A41512-0F1A-4AAA-A425-8857F9308381}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A66 A31:A34 A143 A16:A17" xr:uid="{F3A41512-0F1A-4AAA-A425-8857F9308381}">
       <formula1>Technologies</formula1>
     </dataValidation>
   </dataValidations>
@@ -3070,86 +3059,86 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>171</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3173,278 +3162,278 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>156</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>157</v>
-      </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3474,17 +3463,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3492,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3500,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3508,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3516,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3524,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3545,19 +3534,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>134</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3576,155 +3565,155 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>179</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>180</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>182</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>183</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>184</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>186</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>187</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>188</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>189</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>190</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>191</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>192</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>194</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>195</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3743,75 +3732,75 @@
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>197</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>198</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>199</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>200</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>201</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>202</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>203</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3830,18 +3819,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3849,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -3857,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3865,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3873,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -3881,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -3889,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -3897,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2035</v>
       </c>
@@ -3905,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2040</v>
       </c>
@@ -3913,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -3921,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2050</v>
       </c>
@@ -3929,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2055</v>
       </c>
@@ -3937,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2060</v>
       </c>

--- a/Conversion Script/Set_filter_file_MiddleEarth.xlsx
+++ b/Conversion Script/Set_filter_file_MiddleEarth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nim\Documents\GENeSYS_MOD.data\Conversion Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385E0AF-1477-4DEB-8571-05C86B0EDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB4A52-82EB-49CE-8AF0-F41512FD8311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38292" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_selection" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Storage_selection!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Technology_selection!$A$1:$B$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Technology_selection!$A$1:$B$152</definedName>
     <definedName name="Fuels">#REF!</definedName>
     <definedName name="Technologies">#REF!:B</definedName>
   </definedNames>
@@ -295,9 +295,6 @@
     <t>HLI_Direct_Electric</t>
   </si>
   <si>
-    <t>HLI_Fuelcell</t>
-  </si>
-  <si>
     <t>HLI_Gas_Boiler</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>X_Convert_HD</t>
+  </si>
+  <si>
+    <t>DistrictHeating</t>
   </si>
 </sst>
 </file>
@@ -1307,30 +1307,30 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1610,185 +1610,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>209</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>210</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>211</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>212</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>213</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>214</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>216</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>217</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>218</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>219</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>220</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>221</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>222</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>223</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>224</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>225</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>226</v>
-      </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>290</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>291</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>292</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>293</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>294</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1801,26 +1801,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1988,31 +1988,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>277</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>278</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>279</v>
-      </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2116,135 +2116,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>231</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>232</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>233</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>234</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>235</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>236</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>237</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>238</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>239</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>240</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>241</v>
-      </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>283</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>284</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>285</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>286</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>287</v>
-      </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -2380,15 +2380,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>267</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>268</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>269</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>270</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>272</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>274</v>
       </c>
@@ -2452,15 +2452,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2500,39 +2500,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>94</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>248</v>
-      </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>95</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>98</v>
-      </c>
       <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2540,31 +2540,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -2572,39 +2572,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>250</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
       <c r="B99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>251</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>252</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>253</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>254</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>255</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>258</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>259</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -2692,15 +2692,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>262</v>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>102</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>103</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>104</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>105</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>106</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>107</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>108</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>109</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>110</v>
       </c>
@@ -2772,23 +2772,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>111</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>242</v>
-      </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -2804,23 +2804,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>114</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>243</v>
-      </c>
       <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -2828,15 +2828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>244</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>246</v>
       </c>
@@ -2860,47 +2860,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>295</v>
-      </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>118</v>
       </c>
@@ -2908,23 +2908,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>276</v>
-      </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>120</v>
       </c>
@@ -2932,31 +2932,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>121</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>122</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>228</v>
-      </c>
       <c r="B143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -2964,23 +2964,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>124</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>229</v>
-      </c>
       <c r="B146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>125</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>126</v>
       </c>
@@ -2996,23 +2996,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>128</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>129</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -3028,22 +3028,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>131</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B153" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B153">
-      <sortCondition ref="A1:A153"/>
+  <autoFilter ref="A1:B152" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B152">
+      <sortCondition ref="A1:A152"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A66 A31:A34 A143 A16:A17" xr:uid="{F3A41512-0F1A-4AAA-A425-8857F9308381}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65 A31:A34 A142 A16:A17" xr:uid="{F3A41512-0F1A-4AAA-A425-8857F9308381}">
       <formula1>Technologies</formula1>
     </dataValidation>
   </dataValidations>
@@ -3059,86 +3051,86 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>170</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3162,278 +3154,278 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>161</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>155</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>156</v>
-      </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3463,17 +3455,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3481,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3489,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3497,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3505,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3513,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3534,19 +3526,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>133</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3565,155 +3557,155 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>177</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>178</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>179</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>180</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>181</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>183</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>184</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>185</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>186</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>187</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>188</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>189</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>190</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>191</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>192</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>193</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>194</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3726,83 +3718,91 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D5B3E0-498C-4AB7-BB30-7BCE295E19AC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>196</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>197</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>198</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>199</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>201</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -3819,18 +3819,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2035</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2040</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2050</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2055</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2060</v>
       </c>
